--- a/ambiente/CO2/dataset_.xlsx
+++ b/ambiente/CO2/dataset_.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLIMAC\Desktop\Datasets\ambiente\CO2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLIMAC\Documents\gorelambayeque\datasets-lambayeque\ambiente\CO2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9789AC4-5251-4EDF-B0E7-7555E436218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A4388C-C200-4101-AA26-5388AD1944E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{89D8DFD9-B5E2-4DD2-BEB2-CB7DD214F52C}"/>
+    <workbookView xWindow="23970" yWindow="2205" windowWidth="26025" windowHeight="17190" xr2:uid="{89D8DFD9-B5E2-4DD2-BEB2-CB7DD214F52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset GEI CSV_0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dataset GEI CSV_0'!$A$1:$N$358</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1295,12 +1298,15 @@
   <dimension ref="A1:N358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -13243,6 +13249,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N358" xr:uid="{25B74B71-8345-41A3-8EC1-F8D32F9789D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>